--- a/Hoa Binh.xlsx
+++ b/Hoa Binh.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E942"/>
+  <dimension ref="A1:E948"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -707,17 +707,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Đào</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="C17">
-        <v>5758</v>
+        <v>5656</v>
       </c>
       <c r="D17">
         <v>841569</v>
       </c>
       <c r="E17">
-        <v>0.6841982059700393</v>
+        <v>0.6720779876635189</v>
       </c>
     </row>
     <row r="18">
@@ -728,17 +728,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Lò</t>
         </is>
       </c>
       <c r="C18">
-        <v>5656</v>
+        <v>5530</v>
       </c>
       <c r="D18">
         <v>841569</v>
       </c>
       <c r="E18">
-        <v>0.6720779876635189</v>
+        <v>0.6571059532848762</v>
       </c>
     </row>
     <row r="19">
@@ -749,17 +749,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Lò</t>
+          <t>Triệu</t>
         </is>
       </c>
       <c r="C19">
-        <v>5530</v>
+        <v>5236</v>
       </c>
       <c r="D19">
         <v>841569</v>
       </c>
       <c r="E19">
-        <v>0.6571059532848762</v>
+        <v>0.6221712064013765</v>
       </c>
     </row>
     <row r="20">
@@ -770,17 +770,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Triệu</t>
+          <t>Vì</t>
         </is>
       </c>
       <c r="C20">
-        <v>5236</v>
+        <v>4565</v>
       </c>
       <c r="D20">
         <v>841569</v>
       </c>
       <c r="E20">
-        <v>0.6221712064013765</v>
+        <v>0.5424391820516202</v>
       </c>
     </row>
     <row r="21">
@@ -791,17 +791,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Vì</t>
+          <t>Ngô</t>
         </is>
       </c>
       <c r="C21">
-        <v>4565</v>
+        <v>4084</v>
       </c>
       <c r="D21">
         <v>841569</v>
       </c>
       <c r="E21">
-        <v>0.5424391820516202</v>
+        <v>0.4852840349394999</v>
       </c>
     </row>
     <row r="22">
@@ -812,17 +812,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ngô</t>
+          <t>Lý</t>
         </is>
       </c>
       <c r="C22">
-        <v>4084</v>
+        <v>3912</v>
       </c>
       <c r="D22">
         <v>841569</v>
       </c>
       <c r="E22">
-        <v>0.4852840349394999</v>
+        <v>0.4648460197559558</v>
       </c>
     </row>
     <row r="23">
@@ -833,17 +833,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Lý</t>
+          <t>Phùng</t>
         </is>
       </c>
       <c r="C23">
-        <v>3912</v>
+        <v>3878</v>
       </c>
       <c r="D23">
         <v>841569</v>
       </c>
       <c r="E23">
-        <v>0.4648460197559558</v>
+        <v>0.4608059469871157</v>
       </c>
     </row>
     <row r="24">
@@ -854,17 +854,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Phùng</t>
+          <t>Trịnh</t>
         </is>
       </c>
       <c r="C24">
-        <v>3878</v>
+        <v>3832</v>
       </c>
       <c r="D24">
         <v>841569</v>
       </c>
       <c r="E24">
-        <v>0.4608059469871157</v>
+        <v>0.4553399661822145</v>
       </c>
     </row>
     <row r="25">
@@ -875,17 +875,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Trịnh</t>
+          <t>Đào</t>
         </is>
       </c>
       <c r="C25">
-        <v>3832</v>
+        <v>3509</v>
       </c>
       <c r="D25">
         <v>841569</v>
       </c>
       <c r="E25">
-        <v>0.4553399661822145</v>
+        <v>0.4169592748782334</v>
       </c>
     </row>
     <row r="26">
@@ -1001,17 +1001,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Lương</t>
+          <t>Đoàn</t>
         </is>
       </c>
       <c r="C31">
-        <v>1795</v>
+        <v>2310</v>
       </c>
       <c r="D31">
         <v>841569</v>
       </c>
       <c r="E31">
-        <v>0.2132920770608233</v>
+        <v>0.2744872969417838</v>
       </c>
     </row>
     <row r="32">
@@ -1022,17 +1022,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sùng</t>
+          <t>Lương</t>
         </is>
       </c>
       <c r="C32">
-        <v>1701</v>
+        <v>1795</v>
       </c>
       <c r="D32">
         <v>841569</v>
       </c>
       <c r="E32">
-        <v>0.2021224641116771</v>
+        <v>0.2132920770608233</v>
       </c>
     </row>
     <row r="33">
@@ -1043,17 +1043,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Sùng</t>
         </is>
       </c>
       <c r="C33">
-        <v>1635</v>
+        <v>1701</v>
       </c>
       <c r="D33">
         <v>841569</v>
       </c>
       <c r="E33">
-        <v>0.1942799699133405</v>
+        <v>0.2021224641116771</v>
       </c>
     </row>
     <row r="34">
@@ -1064,17 +1064,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Lưu</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="C34">
-        <v>1624</v>
+        <v>1635</v>
       </c>
       <c r="D34">
         <v>841569</v>
       </c>
       <c r="E34">
-        <v>0.192972887546951</v>
+        <v>0.1942799699133405</v>
       </c>
     </row>
     <row r="35">
@@ -1085,17 +1085,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tạ</t>
+          <t>Lưu</t>
         </is>
       </c>
       <c r="C35">
-        <v>1606</v>
+        <v>1624</v>
       </c>
       <c r="D35">
         <v>841569</v>
       </c>
       <c r="E35">
-        <v>0.1908340254928592</v>
+        <v>0.192972887546951</v>
       </c>
     </row>
     <row r="36">
@@ -1106,17 +1106,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Chu</t>
+          <t>Tạ</t>
         </is>
       </c>
       <c r="C36">
-        <v>1397</v>
+        <v>1606</v>
       </c>
       <c r="D36">
         <v>841569</v>
       </c>
       <c r="E36">
-        <v>0.1659994605314597</v>
+        <v>0.1908340254928592</v>
       </c>
     </row>
     <row r="37">
@@ -1127,17 +1127,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Giàng</t>
+          <t>Chu</t>
         </is>
       </c>
       <c r="C37">
-        <v>1188</v>
+        <v>1397</v>
       </c>
       <c r="D37">
         <v>841569</v>
       </c>
       <c r="E37">
-        <v>0.1411648955700602</v>
+        <v>0.1659994605314597</v>
       </c>
     </row>
     <row r="38">
@@ -1148,17 +1148,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Kiều</t>
+          <t>Giàng</t>
         </is>
       </c>
       <c r="C38">
-        <v>904</v>
+        <v>1188</v>
       </c>
       <c r="D38">
         <v>841569</v>
       </c>
       <c r="E38">
-        <v>0.1074184053832782</v>
+        <v>0.1411648955700602</v>
       </c>
     </row>
     <row r="39">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hồ</t>
+          <t>Kiều</t>
         </is>
       </c>
       <c r="C39">
-        <v>875</v>
+        <v>904</v>
       </c>
       <c r="D39">
         <v>841569</v>
       </c>
       <c r="E39">
-        <v>0.1039724609627969</v>
+        <v>0.1074184053832782</v>
       </c>
     </row>
     <row r="40">
@@ -1190,17 +1190,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Vàng</t>
+          <t>Hồ</t>
         </is>
       </c>
       <c r="C40">
-        <v>831</v>
+        <v>875</v>
       </c>
       <c r="D40">
         <v>841569</v>
       </c>
       <c r="E40">
-        <v>0.09874413149723908</v>
+        <v>0.1039724609627969</v>
       </c>
     </row>
     <row r="41">
@@ -1211,17 +1211,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Vương</t>
+          <t>Vàng</t>
         </is>
       </c>
       <c r="C41">
-        <v>709</v>
+        <v>831</v>
       </c>
       <c r="D41">
         <v>841569</v>
       </c>
       <c r="E41">
-        <v>0.08424739979728341</v>
+        <v>0.09874413149723908</v>
       </c>
     </row>
     <row r="42">
@@ -1232,17 +1232,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Lại</t>
+          <t>Vương</t>
         </is>
       </c>
       <c r="C42">
-        <v>651</v>
+        <v>709</v>
       </c>
       <c r="D42">
         <v>841569</v>
       </c>
       <c r="E42">
-        <v>0.07735551095632087</v>
+        <v>0.08424739979728341</v>
       </c>
     </row>
     <row r="43">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Võ</t>
+          <t>Lại</t>
         </is>
       </c>
       <c r="C43">
-        <v>581</v>
+        <v>651</v>
       </c>
       <c r="D43">
         <v>841569</v>
       </c>
       <c r="E43">
-        <v>0.06903771407929712</v>
+        <v>0.07735551095632087</v>
       </c>
     </row>
     <row r="44">
@@ -1274,17 +1274,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tô</t>
+          <t>Võ</t>
         </is>
       </c>
       <c r="C44">
-        <v>461</v>
+        <v>581</v>
       </c>
       <c r="D44">
         <v>841569</v>
       </c>
       <c r="E44">
-        <v>0.05477863371868498</v>
+        <v>0.06903771407929712</v>
       </c>
     </row>
     <row r="45">
@@ -1295,17 +1295,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tống</t>
+          <t>Tô</t>
         </is>
       </c>
       <c r="C45">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="D45">
         <v>841569</v>
       </c>
       <c r="E45">
-        <v>0.05347155135229553</v>
+        <v>0.05477863371868498</v>
       </c>
     </row>
     <row r="46">
@@ -1316,17 +1316,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Khuất</t>
+          <t>Tống</t>
         </is>
       </c>
       <c r="C46">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="D46">
         <v>841569</v>
       </c>
       <c r="E46">
-        <v>0.05204564331623432</v>
+        <v>0.05347155135229553</v>
       </c>
     </row>
     <row r="47">
@@ -1337,17 +1337,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Đàm</t>
+          <t>Khuất</t>
         </is>
       </c>
       <c r="C47">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="D47">
         <v>841569</v>
       </c>
       <c r="E47">
-        <v>0.05085738661951664</v>
+        <v>0.05204564331623432</v>
       </c>
     </row>
     <row r="48">
@@ -1358,17 +1358,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mạc</t>
+          <t>Đàm</t>
         </is>
       </c>
       <c r="C48">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D48">
         <v>841569</v>
       </c>
       <c r="E48">
-        <v>0.05050090961050133</v>
+        <v>0.05085738661951664</v>
       </c>
     </row>
     <row r="49">
@@ -1379,17 +1379,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Vi</t>
+          <t>Mạc</t>
         </is>
       </c>
       <c r="C49">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="D49">
         <v>841569</v>
       </c>
       <c r="E49">
-        <v>0.04681731385067654</v>
+        <v>0.05050090961050133</v>
       </c>
     </row>
     <row r="50">
@@ -1400,17 +1400,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mùa</t>
+          <t>Vi</t>
         </is>
       </c>
       <c r="C50">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="D50">
         <v>841569</v>
       </c>
       <c r="E50">
-        <v>0.04539140581461532</v>
+        <v>0.04681731385067654</v>
       </c>
     </row>
     <row r="51">
@@ -1421,17 +1421,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Lã</t>
+          <t>Mùa</t>
         </is>
       </c>
       <c r="C51">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D51">
         <v>841569</v>
       </c>
       <c r="E51">
-        <v>0.04491610313592825</v>
+        <v>0.04539140581461532</v>
       </c>
     </row>
     <row r="52">
@@ -1442,17 +1442,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Lâm</t>
+          <t>Lã</t>
         </is>
       </c>
       <c r="C52">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="D52">
         <v>841569</v>
       </c>
       <c r="E52">
-        <v>0.0432525437605235</v>
+        <v>0.04491610313592825</v>
       </c>
     </row>
     <row r="53">
@@ -1463,17 +1463,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Nghiêm</t>
+          <t>Lâm</t>
         </is>
       </c>
       <c r="C53">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="D53">
         <v>841569</v>
       </c>
       <c r="E53">
-        <v>0.04194546139413405</v>
+        <v>0.0432525437605235</v>
       </c>
     </row>
     <row r="54">
@@ -1484,17 +1484,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Đồng</t>
+          <t>Nghiêm</t>
         </is>
       </c>
       <c r="C54">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="D54">
         <v>841569</v>
       </c>
       <c r="E54">
-        <v>0.0395689480006987</v>
+        <v>0.04194546139413405</v>
       </c>
     </row>
     <row r="55">
@@ -1505,17 +1505,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cấn</t>
+          <t>Đồng</t>
         </is>
       </c>
       <c r="C55">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="D55">
         <v>841569</v>
       </c>
       <c r="E55">
-        <v>0.03719243460726334</v>
+        <v>0.0395689480006987</v>
       </c>
     </row>
     <row r="56">
@@ -1526,17 +1526,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Huỳnh</t>
+          <t>Cấn</t>
         </is>
       </c>
       <c r="C56">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="D56">
         <v>841569</v>
       </c>
       <c r="E56">
-        <v>0.03564770090153035</v>
+        <v>0.03719243460726334</v>
       </c>
     </row>
     <row r="57">
@@ -1547,17 +1547,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Giang</t>
+          <t>Huỳnh</t>
         </is>
       </c>
       <c r="C57">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="D57">
         <v>841569</v>
       </c>
       <c r="E57">
-        <v>0.03315236183842323</v>
+        <v>0.03564770090153035</v>
       </c>
     </row>
     <row r="58">
@@ -1568,17 +1568,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ninh</t>
+          <t>Giang</t>
         </is>
       </c>
       <c r="C58">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="D58">
         <v>841569</v>
       </c>
       <c r="E58">
-        <v>0.02875581206056782</v>
+        <v>0.03315236183842323</v>
       </c>
     </row>
     <row r="59">
@@ -1589,17 +1589,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Màu</t>
+          <t>Ninh</t>
         </is>
       </c>
       <c r="C59">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D59">
         <v>841569</v>
       </c>
       <c r="E59">
-        <v>0.02804285804253721</v>
+        <v>0.02875581206056782</v>
       </c>
     </row>
     <row r="60">
@@ -1610,17 +1610,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Định</t>
+          <t>Màu</t>
         </is>
       </c>
       <c r="C60">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D60">
         <v>841569</v>
       </c>
       <c r="E60">
-        <v>0.0269734270154913</v>
+        <v>0.02804285804253721</v>
       </c>
     </row>
     <row r="61">
@@ -1631,17 +1631,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Nông</t>
+          <t>Định</t>
         </is>
       </c>
       <c r="C61">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D61">
         <v>841569</v>
       </c>
       <c r="E61">
-        <v>0.02602282165811716</v>
+        <v>0.0269734270154913</v>
       </c>
     </row>
     <row r="62">
@@ -1652,17 +1652,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Hờ</t>
+          <t>Nông</t>
         </is>
       </c>
       <c r="C62">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D62">
         <v>841569</v>
       </c>
       <c r="E62">
-        <v>0.02590399598844539</v>
+        <v>0.02602282165811716</v>
       </c>
     </row>
     <row r="63">
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Hờ</t>
         </is>
       </c>
       <c r="C63">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D63">
         <v>841569</v>
       </c>
       <c r="E63">
-        <v>0.02507221630074302</v>
+        <v>0.02590399598844539</v>
       </c>
     </row>
     <row r="64">
@@ -1694,17 +1694,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ha</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C64">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D64">
         <v>841569</v>
       </c>
       <c r="E64">
-        <v>0.02305217991632296</v>
+        <v>0.02507221630074302</v>
       </c>
     </row>
     <row r="65">
@@ -1715,17 +1715,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Vu</t>
+          <t>Ha</t>
         </is>
       </c>
       <c r="C65">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65">
         <v>841569</v>
       </c>
       <c r="E65">
-        <v>0.02281452857697943</v>
+        <v>0.02305217991632296</v>
       </c>
     </row>
     <row r="66">
@@ -1736,17 +1736,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Doãn</t>
+          <t>Vu</t>
         </is>
       </c>
       <c r="C66">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D66">
         <v>841569</v>
       </c>
       <c r="E66">
-        <v>0.02222040022862059</v>
+        <v>0.02281452857697943</v>
       </c>
     </row>
     <row r="67">
@@ -1757,17 +1757,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Trinh</t>
+          <t>Doãn</t>
         </is>
       </c>
       <c r="C67">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D67">
         <v>841569</v>
       </c>
       <c r="E67">
-        <v>0.02210157455894882</v>
+        <v>0.02222040022862059</v>
       </c>
     </row>
     <row r="68">
@@ -1778,17 +1778,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Nhữ</t>
+          <t>Trinh</t>
         </is>
       </c>
       <c r="C68">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="D68">
         <v>841569</v>
       </c>
       <c r="E68">
-        <v>0.019962712504857</v>
+        <v>0.02210157455894882</v>
       </c>
     </row>
     <row r="69">
@@ -1799,17 +1799,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>bạch</t>
+          <t>Nhữ</t>
         </is>
       </c>
       <c r="C69">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D69">
         <v>841569</v>
       </c>
       <c r="E69">
-        <v>0.01936858415649816</v>
+        <v>0.019962712504857</v>
       </c>
     </row>
     <row r="70">
@@ -1820,17 +1820,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Dư</t>
+          <t>bạch</t>
         </is>
       </c>
       <c r="C70">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D70">
         <v>841569</v>
       </c>
       <c r="E70">
-        <v>0.01901210714748286</v>
+        <v>0.01936858415649816</v>
       </c>
     </row>
     <row r="71">
@@ -1841,17 +1841,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Văn</t>
+          <t>Dư</t>
         </is>
       </c>
       <c r="C71">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D71">
         <v>841569</v>
       </c>
       <c r="E71">
-        <v>0.01853680446879579</v>
+        <v>0.01901210714748286</v>
       </c>
     </row>
     <row r="72">
@@ -1862,17 +1862,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Khương</t>
+          <t>Văn</t>
         </is>
       </c>
       <c r="C72">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D72">
         <v>841569</v>
       </c>
       <c r="E72">
-        <v>0.01829915312945225</v>
+        <v>0.01853680446879579</v>
       </c>
     </row>
     <row r="73">
@@ -1883,17 +1883,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Phí</t>
+          <t>Khương</t>
         </is>
       </c>
       <c r="C73">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D73">
         <v>841569</v>
       </c>
       <c r="E73">
-        <v>0.01746737344174987</v>
+        <v>0.01829915312945225</v>
       </c>
     </row>
     <row r="74">
@@ -1904,17 +1904,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Thái</t>
+          <t>Phí</t>
         </is>
       </c>
       <c r="C74">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D74">
         <v>841569</v>
       </c>
       <c r="E74">
-        <v>0.0162791167450322</v>
+        <v>0.01746737344174987</v>
       </c>
     </row>
     <row r="75">
@@ -1925,17 +1925,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Quản</t>
+          <t>Thái</t>
         </is>
       </c>
       <c r="C75">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D75">
         <v>841569</v>
       </c>
       <c r="E75">
-        <v>0.01354612634258154</v>
+        <v>0.0162791167450322</v>
       </c>
     </row>
     <row r="76">
@@ -1946,17 +1946,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ke</t>
+          <t>Quản</t>
         </is>
       </c>
       <c r="C76">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D76">
         <v>841569</v>
       </c>
       <c r="E76">
-        <v>0.013308475003238</v>
+        <v>0.01354612634258154</v>
       </c>
     </row>
     <row r="77">
@@ -1967,17 +1967,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Lục</t>
+          <t>Ke</t>
         </is>
       </c>
       <c r="C77">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D77">
         <v>841569</v>
       </c>
       <c r="E77">
-        <v>0.01318964933356623</v>
+        <v>0.013308475003238</v>
       </c>
     </row>
     <row r="78">
@@ -1988,17 +1988,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Tăng</t>
+          <t>Lục</t>
         </is>
       </c>
       <c r="C78">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D78">
         <v>841569</v>
       </c>
       <c r="E78">
-        <v>0.01271434665487916</v>
+        <v>0.01318964933356623</v>
       </c>
     </row>
     <row r="79">
@@ -2009,17 +2009,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Mùi</t>
+          <t>Tăng</t>
         </is>
       </c>
       <c r="C79">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D79">
         <v>841569</v>
       </c>
       <c r="E79">
-        <v>0.01140726428848971</v>
+        <v>0.01271434665487916</v>
       </c>
     </row>
     <row r="80">
@@ -2030,17 +2030,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Cù</t>
+          <t>Mùi</t>
         </is>
       </c>
       <c r="C80">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D80">
         <v>841569</v>
       </c>
       <c r="E80">
-        <v>0.01093196160980264</v>
+        <v>0.01140726428848971</v>
       </c>
     </row>
     <row r="81">
@@ -2051,17 +2051,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ngần</t>
+          <t>Cù</t>
         </is>
       </c>
       <c r="C81">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D81">
         <v>841569</v>
       </c>
       <c r="E81">
-        <v>0.009981356252428498</v>
+        <v>0.01093196160980264</v>
       </c>
     </row>
     <row r="82">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Sa</t>
+          <t>Ngần</t>
         </is>
       </c>
       <c r="C82">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Sầm</t>
+          <t>Sa</t>
         </is>
       </c>
       <c r="C83">
@@ -2114,17 +2114,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>La</t>
+          <t>Sầm</t>
         </is>
       </c>
       <c r="C84">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D84">
         <v>841569</v>
       </c>
       <c r="E84">
-        <v>0.009624879243413197</v>
+        <v>0.009981356252428498</v>
       </c>
     </row>
     <row r="85">
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Quàng</t>
+          <t>La</t>
         </is>
       </c>
       <c r="C85">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D85">
         <v>841569</v>
       </c>
       <c r="E85">
-        <v>0.009387227904069661</v>
+        <v>0.009624879243413197</v>
       </c>
     </row>
     <row r="86">
@@ -2156,17 +2156,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Lộc</t>
+          <t>Quàng</t>
         </is>
       </c>
       <c r="C86">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D86">
         <v>841569</v>
       </c>
       <c r="E86">
-        <v>0.008793099555710822</v>
+        <v>0.009387227904069661</v>
       </c>
     </row>
     <row r="87">
@@ -2177,17 +2177,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Lỗ</t>
+          <t>Lộc</t>
         </is>
       </c>
       <c r="C87">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D87">
         <v>841569</v>
       </c>
       <c r="E87">
-        <v>0.008555448216367285</v>
+        <v>0.008793099555710822</v>
       </c>
     </row>
     <row r="88">
@@ -2198,17 +2198,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ngân</t>
+          <t>Lỗ</t>
         </is>
       </c>
       <c r="C88">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D88">
         <v>841569</v>
       </c>
       <c r="E88">
-        <v>0.008317796877023749</v>
+        <v>0.008555448216367285</v>
       </c>
     </row>
     <row r="89">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Tếnh</t>
+          <t>Ngân</t>
         </is>
       </c>
       <c r="C89">
@@ -2240,17 +2240,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Đoàn</t>
+          <t>Tếnh</t>
         </is>
       </c>
       <c r="C90">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D90">
         <v>841569</v>
       </c>
       <c r="E90">
-        <v>0.008080145537680215</v>
+        <v>0.008317796877023749</v>
       </c>
     </row>
     <row r="91">
@@ -9359,7 +9359,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Di</t>
+          <t>Dđoàn</t>
         </is>
       </c>
       <c r="C429">
@@ -9380,7 +9380,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Đi</t>
+          <t>Di</t>
         </is>
       </c>
       <c r="C430">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Diêm</t>
+          <t>Đi</t>
         </is>
       </c>
       <c r="C431">
@@ -9422,7 +9422,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Đỉnh</t>
+          <t>Diêm</t>
         </is>
       </c>
       <c r="C432">
@@ -9443,7 +9443,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>đnh</t>
+          <t>Đỉnh</t>
         </is>
       </c>
       <c r="C433">
@@ -9464,7 +9464,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Dô</t>
+          <t>đnh</t>
         </is>
       </c>
       <c r="C434">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>đô</t>
+          <t>Dô</t>
         </is>
       </c>
       <c r="C435">
@@ -9506,7 +9506,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Doãn</t>
+          <t>đô</t>
         </is>
       </c>
       <c r="C436">
@@ -9527,7 +9527,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Đonh</t>
+          <t>Doãn</t>
         </is>
       </c>
       <c r="C437">
@@ -9548,7 +9548,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Đoỗ</t>
+          <t>Đonh</t>
         </is>
       </c>
       <c r="C438">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Dừ</t>
+          <t>Đoỗ</t>
         </is>
       </c>
       <c r="C439">
@@ -9590,7 +9590,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Dự</t>
+          <t>Dừ</t>
         </is>
       </c>
       <c r="C440">
@@ -9611,7 +9611,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Dự</t>
+          <t>Dự</t>
         </is>
       </c>
       <c r="C441">
@@ -9632,7 +9632,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Dứng</t>
+          <t>Dự</t>
         </is>
       </c>
       <c r="C442">
@@ -9653,7 +9653,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Gia</t>
+          <t>Dứng</t>
         </is>
       </c>
       <c r="C443">
@@ -9674,7 +9674,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Gui</t>
+          <t>Gia</t>
         </is>
       </c>
       <c r="C444">
@@ -9695,7 +9695,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>H'</t>
+          <t>Gui</t>
         </is>
       </c>
       <c r="C445">
@@ -9716,7 +9716,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Hả</t>
+          <t>H'</t>
         </is>
       </c>
       <c r="C446">
@@ -9737,7 +9737,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Hạm</t>
+          <t>Hả</t>
         </is>
       </c>
       <c r="C447">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Hảng</t>
+          <t>Hạm</t>
         </is>
       </c>
       <c r="C448">
@@ -9779,7 +9779,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Hoàn</t>
+          <t>Hảng</t>
         </is>
       </c>
       <c r="C449">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Hoằng</t>
+          <t>Hoàn</t>
         </is>
       </c>
       <c r="C450">
@@ -9821,7 +9821,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Iê</t>
+          <t>Hoằng</t>
         </is>
       </c>
       <c r="C451">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>k</t>
+          <t>Iê</t>
         </is>
       </c>
       <c r="C452">
@@ -9863,7 +9863,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Khắc</t>
+          <t>k</t>
         </is>
       </c>
       <c r="C453">
@@ -9884,7 +9884,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Khắc</t>
         </is>
       </c>
       <c r="C454">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Khuất</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="C455">
@@ -9926,7 +9926,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>KiỀu</t>
+          <t>Khuất</t>
         </is>
       </c>
       <c r="C456">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Kỳ</t>
+          <t>KiỀu</t>
         </is>
       </c>
       <c r="C457">
@@ -9968,7 +9968,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Lầu</t>
+          <t>Kỳ</t>
         </is>
       </c>
       <c r="C458">
@@ -9989,7 +9989,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Lậu</t>
+          <t>Lầu</t>
         </is>
       </c>
       <c r="C459">
@@ -10010,7 +10010,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Lèng</t>
+          <t>Lậu</t>
         </is>
       </c>
       <c r="C460">
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Lí</t>
+          <t>Lèng</t>
         </is>
       </c>
       <c r="C461">
@@ -10052,7 +10052,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Liễu</t>
+          <t>Lí</t>
         </is>
       </c>
       <c r="C462">
@@ -10073,7 +10073,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>lo</t>
+          <t>Liễu</t>
         </is>
       </c>
       <c r="C463">
@@ -10094,7 +10094,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Lồ</t>
+          <t>lo</t>
         </is>
       </c>
       <c r="C464">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Lợi</t>
+          <t>Lồ</t>
         </is>
       </c>
       <c r="C465">
@@ -10136,7 +10136,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Lợi</t>
         </is>
       </c>
       <c r="C466">
@@ -10157,7 +10157,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Lùng</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="C467">
@@ -10178,7 +10178,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Lườn</t>
+          <t>Lùng</t>
         </is>
       </c>
       <c r="C468">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Lườnh</t>
+          <t>Lườn</t>
         </is>
       </c>
       <c r="C469">
@@ -10220,7 +10220,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Lừu</t>
+          <t>Lườnh</t>
         </is>
       </c>
       <c r="C470">
@@ -10241,7 +10241,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Má</t>
+          <t>Lừu</t>
         </is>
       </c>
       <c r="C471">
@@ -10262,7 +10262,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>mã</t>
+          <t>Má</t>
         </is>
       </c>
       <c r="C472">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Mâu</t>
+          <t>mã</t>
         </is>
       </c>
       <c r="C473">
@@ -10304,7 +10304,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Mẫu</t>
+          <t>Mâu</t>
         </is>
       </c>
       <c r="C474">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Minh</t>
+          <t>Mẫu</t>
         </is>
       </c>
       <c r="C475">
@@ -10346,7 +10346,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Nghiệm</t>
+          <t>Minh</t>
         </is>
       </c>
       <c r="C476">
@@ -10367,7 +10367,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Ngộ</t>
+          <t>Nghiệm</t>
         </is>
       </c>
       <c r="C477">
@@ -10388,7 +10388,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Nguyết</t>
+          <t>Ngộ</t>
         </is>
       </c>
       <c r="C478">
@@ -10409,7 +10409,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Nho</t>
+          <t>Nguyết</t>
         </is>
       </c>
       <c r="C479">
@@ -10430,7 +10430,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Nhu</t>
+          <t>Nho</t>
         </is>
       </c>
       <c r="C480">
@@ -10451,7 +10451,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Nhữ</t>
+          <t>Nhu</t>
         </is>
       </c>
       <c r="C481">
@@ -10472,7 +10472,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Ôn</t>
+          <t>Nhữ</t>
         </is>
       </c>
       <c r="C482">
@@ -10493,7 +10493,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Park</t>
+          <t>Ôn</t>
         </is>
       </c>
       <c r="C483">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Phân</t>
+          <t>Park</t>
         </is>
       </c>
       <c r="C484">
@@ -10535,7 +10535,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Phỉ</t>
+          <t>Phân</t>
         </is>
       </c>
       <c r="C485">
@@ -10556,7 +10556,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Piao</t>
+          <t>Phỉ</t>
         </is>
       </c>
       <c r="C486">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Qoach</t>
+          <t>Piao</t>
         </is>
       </c>
       <c r="C487">
@@ -10598,7 +10598,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Qua</t>
+          <t>Qoach</t>
         </is>
       </c>
       <c r="C488">
@@ -10619,7 +10619,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>QUÁ</t>
+          <t>Qua</t>
         </is>
       </c>
       <c r="C489">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>quác</t>
+          <t>QUÁ</t>
         </is>
       </c>
       <c r="C490">
@@ -10661,7 +10661,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Quanh</t>
+          <t>quác</t>
         </is>
       </c>
       <c r="C491">
@@ -10682,7 +10682,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Quoách</t>
+          <t>Quanh</t>
         </is>
       </c>
       <c r="C492">
@@ -10703,7 +10703,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Quỳnh</t>
+          <t>Quoách</t>
         </is>
       </c>
       <c r="C493">
@@ -10724,7 +10724,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Ra</t>
+          <t>Quỳnh</t>
         </is>
       </c>
       <c r="C494">
@@ -10745,7 +10745,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Sâm</t>
+          <t>Ra</t>
         </is>
       </c>
       <c r="C495">
@@ -10766,7 +10766,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Sĩ</t>
+          <t>Sâm</t>
         </is>
       </c>
       <c r="C496">
@@ -10787,7 +10787,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>sinh</t>
+          <t>Sĩ</t>
         </is>
       </c>
       <c r="C497">
@@ -10808,7 +10808,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Soi</t>
+          <t>sinh</t>
         </is>
       </c>
       <c r="C498">
@@ -10829,7 +10829,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Sừng</t>
+          <t>Soi</t>
         </is>
       </c>
       <c r="C499">
@@ -10850,7 +10850,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Tấn</t>
+          <t>Sừng</t>
         </is>
       </c>
       <c r="C500">
@@ -10871,7 +10871,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Tẩn</t>
+          <t>Tấn</t>
         </is>
       </c>
       <c r="C501">
@@ -10892,7 +10892,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Tế</t>
+          <t>Tẩn</t>
         </is>
       </c>
       <c r="C502">
@@ -10913,7 +10913,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>thân</t>
+          <t>Tế</t>
         </is>
       </c>
       <c r="C503">
@@ -10934,7 +10934,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Thần</t>
+          <t>thân</t>
         </is>
       </c>
       <c r="C504">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Thèn</t>
+          <t>Thần</t>
         </is>
       </c>
       <c r="C505">
@@ -10976,7 +10976,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>thiều</t>
+          <t>Thèn</t>
         </is>
       </c>
       <c r="C506">
@@ -10997,7 +10997,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Thọ</t>
+          <t>thiều</t>
         </is>
       </c>
       <c r="C507">
@@ -11018,7 +11018,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Thừa</t>
+          <t>Thọ</t>
         </is>
       </c>
       <c r="C508">
@@ -11039,7 +11039,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Tiên</t>
+          <t>Thừa</t>
         </is>
       </c>
       <c r="C509">
@@ -11060,7 +11060,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Tiết</t>
+          <t>Tiên</t>
         </is>
       </c>
       <c r="C510">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Toán</t>
+          <t>Tiết</t>
         </is>
       </c>
       <c r="C511">
@@ -11102,7 +11102,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Tôi</t>
+          <t>Toán</t>
         </is>
       </c>
       <c r="C512">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Tồng</t>
+          <t>Tôi</t>
         </is>
       </c>
       <c r="C513">
@@ -11144,7 +11144,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Trà</t>
+          <t>Tồng</t>
         </is>
       </c>
       <c r="C514">
@@ -11165,7 +11165,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Trạc</t>
+          <t>Trà</t>
         </is>
       </c>
       <c r="C515">
@@ -11186,7 +11186,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Triệ</t>
+          <t>Trạc</t>
         </is>
       </c>
       <c r="C516">
@@ -11207,7 +11207,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Trính</t>
+          <t>Triệ</t>
         </is>
       </c>
       <c r="C517">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Trướng</t>
+          <t>Trính</t>
         </is>
       </c>
       <c r="C518">
@@ -11249,7 +11249,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Tự</t>
+          <t>Trướng</t>
         </is>
       </c>
       <c r="C519">
@@ -11270,7 +11270,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Tương</t>
+          <t>Tự</t>
         </is>
       </c>
       <c r="C520">
@@ -11291,7 +11291,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Vù</t>
+          <t>Tương</t>
         </is>
       </c>
       <c r="C521">
@@ -11312,17 +11312,17 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>̣</t>
+          <t>Vù</t>
         </is>
       </c>
       <c r="C522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D522">
         <v>841569</v>
       </c>
       <c r="E522">
-        <v>0.0001188256696717678</v>
+        <v>0.0002376513393435357</v>
       </c>
     </row>
     <row r="523">
@@ -11333,7 +11333,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>'</t>
+          <t>̣</t>
         </is>
       </c>
       <c r="C523">
@@ -11354,7 +11354,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>'</t>
         </is>
       </c>
       <c r="C524">
@@ -11375,7 +11375,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Ân</t>
+          <t>an</t>
         </is>
       </c>
       <c r="C525">
@@ -11396,7 +11396,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Ân</t>
         </is>
       </c>
       <c r="C526">
@@ -11417,7 +11417,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Bặch</t>
+          <t>Anh</t>
         </is>
       </c>
       <c r="C527">
@@ -11438,7 +11438,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Bachf</t>
+          <t>Bặch</t>
         </is>
       </c>
       <c r="C528">
@@ -11459,7 +11459,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Bachi</t>
+          <t>Bachf</t>
         </is>
       </c>
       <c r="C529">
@@ -11480,7 +11480,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Bachj</t>
+          <t>Bachi</t>
         </is>
       </c>
       <c r="C530">
@@ -11501,7 +11501,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Bachn</t>
+          <t>Bachj</t>
         </is>
       </c>
       <c r="C531">
@@ -11522,7 +11522,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Bacj</t>
+          <t>Bachn</t>
         </is>
       </c>
       <c r="C532">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>BAN</t>
+          <t>Bacj</t>
         </is>
       </c>
       <c r="C533">
@@ -11564,7 +11564,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Bán</t>
+          <t>BAN</t>
         </is>
       </c>
       <c r="C534">
@@ -11585,7 +11585,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Bản</t>
+          <t>Bán</t>
         </is>
       </c>
       <c r="C535">
@@ -11606,7 +11606,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Bang</t>
+          <t>Bản</t>
         </is>
       </c>
       <c r="C536">
@@ -11627,7 +11627,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Bằng</t>
+          <t>Bang</t>
         </is>
       </c>
       <c r="C537">
@@ -11648,7 +11648,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Bạnh</t>
+          <t>Bằng</t>
         </is>
       </c>
       <c r="C538">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Bavhj</t>
+          <t>Bạnh</t>
         </is>
       </c>
       <c r="C539">
@@ -11690,7 +11690,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Be</t>
+          <t>Bavhj</t>
         </is>
       </c>
       <c r="C540">
@@ -11711,7 +11711,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Bguyên</t>
+          <t>Be</t>
         </is>
       </c>
       <c r="C541">
@@ -11732,7 +11732,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Bhif</t>
+          <t>Bguyên</t>
         </is>
       </c>
       <c r="C542">
@@ -11753,7 +11753,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Bhuif</t>
+          <t>Bhif</t>
         </is>
       </c>
       <c r="C543">
@@ -11774,7 +11774,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Biết</t>
+          <t>Bhuif</t>
         </is>
       </c>
       <c r="C544">
@@ -11795,7 +11795,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Bìi</t>
+          <t>Biết</t>
         </is>
       </c>
       <c r="C545">
@@ -11816,7 +11816,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Bịnh</t>
+          <t>Bìi</t>
         </is>
       </c>
       <c r="C546">
@@ -11837,7 +11837,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>bìu</t>
+          <t>Bịnh</t>
         </is>
       </c>
       <c r="C547">
@@ -11858,7 +11858,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Bìu</t>
+          <t>bìu</t>
         </is>
       </c>
       <c r="C548">
@@ -11879,7 +11879,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Bô</t>
+          <t>Bìu</t>
         </is>
       </c>
       <c r="C549">
@@ -11900,7 +11900,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Bố</t>
+          <t>Bô</t>
         </is>
       </c>
       <c r="C550">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>bồ</t>
+          <t>Bố</t>
         </is>
       </c>
       <c r="C551">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Bôf</t>
+          <t>bồ</t>
         </is>
       </c>
       <c r="C552">
@@ -11963,7 +11963,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Bồn</t>
+          <t>Bôf</t>
         </is>
       </c>
       <c r="C553">
@@ -11984,7 +11984,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Bòng</t>
+          <t>Bồn</t>
         </is>
       </c>
       <c r="C554">
@@ -12005,7 +12005,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Bù</t>
+          <t>Bòng</t>
         </is>
       </c>
       <c r="C555">
@@ -12026,7 +12026,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Bụ</t>
+          <t>Bù</t>
         </is>
       </c>
       <c r="C556">
@@ -12047,7 +12047,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Bục</t>
+          <t>Bụ</t>
         </is>
       </c>
       <c r="C557">
@@ -12068,7 +12068,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>búi</t>
+          <t>Bục</t>
         </is>
       </c>
       <c r="C558">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Buk</t>
+          <t>búi</t>
         </is>
       </c>
       <c r="C559">
@@ -12110,7 +12110,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Bùl</t>
+          <t>Buk</t>
         </is>
       </c>
       <c r="C560">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Bung</t>
+          <t>Bùl</t>
         </is>
       </c>
       <c r="C561">
@@ -12152,7 +12152,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>bùo</t>
+          <t>Bung</t>
         </is>
       </c>
       <c r="C562">
@@ -12173,7 +12173,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Buôn</t>
+          <t>bùo</t>
         </is>
       </c>
       <c r="C563">
@@ -12194,7 +12194,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Buùi</t>
+          <t>Buôn</t>
         </is>
       </c>
       <c r="C564">
@@ -12215,7 +12215,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Buùi</t>
         </is>
       </c>
       <c r="C565">
@@ -12236,7 +12236,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="C566">
@@ -12257,7 +12257,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Caấn</t>
+          <t>c</t>
         </is>
       </c>
       <c r="C567">
@@ -12278,7 +12278,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>cẩn</t>
+          <t>Caấn</t>
         </is>
       </c>
       <c r="C568">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Cào</t>
+          <t>cẩn</t>
         </is>
       </c>
       <c r="C569">
@@ -12320,7 +12320,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Cap</t>
+          <t>Cào</t>
         </is>
       </c>
       <c r="C570">
@@ -12341,7 +12341,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Cáp</t>
+          <t>Cap</t>
         </is>
       </c>
       <c r="C571">
@@ -12362,7 +12362,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Cấu</t>
+          <t>Cáp</t>
         </is>
       </c>
       <c r="C572">
@@ -12383,7 +12383,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Chăn</t>
+          <t>Cấu</t>
         </is>
       </c>
       <c r="C573">
@@ -12404,7 +12404,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>chẩu</t>
+          <t>Chăn</t>
         </is>
       </c>
       <c r="C574">
@@ -12425,7 +12425,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Chè</t>
+          <t>chẩu</t>
         </is>
       </c>
       <c r="C575">
@@ -12446,7 +12446,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Chi</t>
+          <t>Chè</t>
         </is>
       </c>
       <c r="C576">
@@ -12467,7 +12467,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Chủ</t>
+          <t>Chi</t>
         </is>
       </c>
       <c r="C577">
@@ -12488,7 +12488,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Chư</t>
+          <t>Chủ</t>
         </is>
       </c>
       <c r="C578">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Chử</t>
+          <t>Chư</t>
         </is>
       </c>
       <c r="C579">
@@ -12530,7 +12530,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Chùa</t>
+          <t>Chử</t>
         </is>
       </c>
       <c r="C580">
@@ -12551,7 +12551,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Chưởng</t>
+          <t>Chùa</t>
         </is>
       </c>
       <c r="C581">
@@ -12572,7 +12572,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Cố</t>
+          <t>Chưởng</t>
         </is>
       </c>
       <c r="C582">
@@ -12593,7 +12593,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Con</t>
+          <t>Cố</t>
         </is>
       </c>
       <c r="C583">
@@ -12614,7 +12614,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>cừ</t>
+          <t>Con</t>
         </is>
       </c>
       <c r="C584">
@@ -12635,7 +12635,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Cữ</t>
+          <t>cừ</t>
         </is>
       </c>
       <c r="C585">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Cử</t>
+          <t>Cữ</t>
         </is>
       </c>
       <c r="C586">
@@ -12677,7 +12677,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Cua</t>
+          <t>Cử</t>
         </is>
       </c>
       <c r="C587">
@@ -12698,7 +12698,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>cường</t>
+          <t>Cua</t>
         </is>
       </c>
       <c r="C588">
@@ -12719,7 +12719,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Cút</t>
+          <t>cường</t>
         </is>
       </c>
       <c r="C589">
@@ -12740,7 +12740,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Đ</t>
+          <t>Cút</t>
         </is>
       </c>
       <c r="C590">
@@ -12761,7 +12761,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Dà</t>
+          <t>Đ</t>
         </is>
       </c>
       <c r="C591">
@@ -12782,7 +12782,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Đa</t>
+          <t>Dà</t>
         </is>
       </c>
       <c r="C592">
@@ -12803,7 +12803,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Đá</t>
+          <t>Đa</t>
         </is>
       </c>
       <c r="C593">
@@ -12824,7 +12824,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Đăặng</t>
+          <t>Đá</t>
         </is>
       </c>
       <c r="C594">
@@ -12845,7 +12845,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Dam</t>
+          <t>Đăặng</t>
         </is>
       </c>
       <c r="C595">
@@ -12866,7 +12866,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Dàm</t>
+          <t>Dam</t>
         </is>
       </c>
       <c r="C596">
@@ -12887,7 +12887,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Đạm</t>
+          <t>Dàm</t>
         </is>
       </c>
       <c r="C597">
@@ -12908,7 +12908,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Đămg</t>
+          <t>Đạm</t>
         </is>
       </c>
       <c r="C598">
@@ -12929,7 +12929,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Đamgwj</t>
+          <t>Đămg</t>
         </is>
       </c>
       <c r="C599">
@@ -12950,7 +12950,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Đặn</t>
+          <t>Đamgwj</t>
         </is>
       </c>
       <c r="C600">
@@ -12971,7 +12971,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>dang</t>
+          <t>Đặn</t>
         </is>
       </c>
       <c r="C601">
@@ -12992,7 +12992,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Dặng</t>
+          <t>dang</t>
         </is>
       </c>
       <c r="C602">
@@ -13013,7 +13013,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>đang</t>
+          <t>Dặng</t>
         </is>
       </c>
       <c r="C603">
@@ -13034,7 +13034,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Đang</t>
+          <t>đang</t>
         </is>
       </c>
       <c r="C604">
@@ -13055,7 +13055,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Đàng</t>
+          <t>Đang</t>
         </is>
       </c>
       <c r="C605">
@@ -13076,7 +13076,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Dangthi</t>
+          <t>Đàng</t>
         </is>
       </c>
       <c r="C606">
@@ -13097,7 +13097,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Dằngvan</t>
+          <t>Dangthi</t>
         </is>
       </c>
       <c r="C607">
@@ -13118,7 +13118,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Dào</t>
+          <t>Dằngvan</t>
         </is>
       </c>
       <c r="C608">
@@ -13139,7 +13139,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>đao</t>
+          <t>Dào</t>
         </is>
       </c>
       <c r="C609">
@@ -13160,7 +13160,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Đảo</t>
+          <t>đao</t>
         </is>
       </c>
       <c r="C610">
@@ -13181,7 +13181,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Đậu</t>
+          <t>Đảo</t>
         </is>
       </c>
       <c r="C611">
@@ -13202,7 +13202,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>đèo</t>
+          <t>Đàoi</t>
         </is>
       </c>
       <c r="C612">
@@ -13223,7 +13223,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Đèo</t>
+          <t>Đàothu</t>
         </is>
       </c>
       <c r="C613">
@@ -13244,7 +13244,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Dfinh</t>
+          <t>Đậu</t>
         </is>
       </c>
       <c r="C614">
@@ -13265,7 +13265,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Diem</t>
+          <t>Dđào</t>
         </is>
       </c>
       <c r="C615">
@@ -13286,7 +13286,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Diep</t>
+          <t>đèo</t>
         </is>
       </c>
       <c r="C616">
@@ -13307,7 +13307,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Điều</t>
+          <t>Đèo</t>
         </is>
       </c>
       <c r="C617">
@@ -13328,7 +13328,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Điinh</t>
+          <t>Dfinh</t>
         </is>
       </c>
       <c r="C618">
@@ -13349,7 +13349,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Đimnh</t>
+          <t>Diem</t>
         </is>
       </c>
       <c r="C619">
@@ -13370,7 +13370,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>đing</t>
+          <t>Diep</t>
         </is>
       </c>
       <c r="C620">
@@ -13391,7 +13391,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Dịnh</t>
+          <t>Điều</t>
         </is>
       </c>
       <c r="C621">
@@ -13412,7 +13412,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Đính</t>
+          <t>Điinh</t>
         </is>
       </c>
       <c r="C622">
@@ -13433,7 +13433,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Ðinh</t>
+          <t>Đimnh</t>
         </is>
       </c>
       <c r="C623">
@@ -13454,7 +13454,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>đố</t>
+          <t>đing</t>
         </is>
       </c>
       <c r="C624">
@@ -13475,7 +13475,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Đô ̉</t>
+          <t>Dịnh</t>
         </is>
       </c>
       <c r="C625">
@@ -13496,7 +13496,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Đô ̃Anh</t>
+          <t>Đính</t>
         </is>
       </c>
       <c r="C626">
@@ -13517,7 +13517,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Đoả</t>
+          <t>Ðinh</t>
         </is>
       </c>
       <c r="C627">
@@ -13538,7 +13538,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>đoàm</t>
+          <t>đố</t>
         </is>
       </c>
       <c r="C628">
@@ -13559,7 +13559,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Doản</t>
+          <t>Đô ̉</t>
         </is>
       </c>
       <c r="C629">
@@ -13580,7 +13580,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Dõan</t>
+          <t>Đô ̃Anh</t>
         </is>
       </c>
       <c r="C630">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>đoan</t>
+          <t>Đoả</t>
         </is>
       </c>
       <c r="C631">
@@ -13622,7 +13622,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Đoãn</t>
+          <t>đoàm</t>
         </is>
       </c>
       <c r="C632">
@@ -13643,7 +13643,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Doãnh</t>
+          <t>Doản</t>
         </is>
       </c>
       <c r="C633">
@@ -13664,7 +13664,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Đoanh</t>
+          <t>Dõan</t>
         </is>
       </c>
       <c r="C634">
@@ -13685,7 +13685,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Doi</t>
+          <t>đoan</t>
         </is>
       </c>
       <c r="C635">
@@ -13706,7 +13706,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Đới</t>
+          <t>Đoãn</t>
         </is>
       </c>
       <c r="C636">
@@ -13727,7 +13727,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Dong</t>
+          <t>Đoàng</t>
         </is>
       </c>
       <c r="C637">
@@ -13748,7 +13748,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Đòng</t>
+          <t>Doãnh</t>
         </is>
       </c>
       <c r="C638">
@@ -13769,7 +13769,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Động</t>
+          <t>Đoanh</t>
         </is>
       </c>
       <c r="C639">
@@ -13790,7 +13790,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Đừ</t>
+          <t>ĐoànThanh</t>
         </is>
       </c>
       <c r="C640">
@@ -13811,7 +13811,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Dùi</t>
+          <t>Doi</t>
         </is>
       </c>
       <c r="C641">
@@ -13832,7 +13832,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Dung</t>
+          <t>Đới</t>
         </is>
       </c>
       <c r="C642">
@@ -13853,7 +13853,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Dùng</t>
+          <t>Dong</t>
         </is>
       </c>
       <c r="C643">
@@ -13874,7 +13874,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Dùng</t>
+          <t>Đòng</t>
         </is>
       </c>
       <c r="C644">
@@ -13895,7 +13895,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Dưng</t>
+          <t>Động</t>
         </is>
       </c>
       <c r="C645">
@@ -13916,7 +13916,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Đừng</t>
+          <t>Đừ</t>
         </is>
       </c>
       <c r="C646">
@@ -13937,7 +13937,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Dươbg</t>
+          <t>Dùi</t>
         </is>
       </c>
       <c r="C647">
@@ -13958,7 +13958,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Dupng</t>
+          <t>Dung</t>
         </is>
       </c>
       <c r="C648">
@@ -13979,7 +13979,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>Dùng</t>
         </is>
       </c>
       <c r="C649">
@@ -14000,7 +14000,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Duyễn</t>
+          <t>Dùng</t>
         </is>
       </c>
       <c r="C650">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Đv</t>
+          <t>Dưng</t>
         </is>
       </c>
       <c r="C651">
@@ -14042,7 +14042,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Đừng</t>
         </is>
       </c>
       <c r="C652">
@@ -14063,7 +14063,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Geoffrey</t>
+          <t>Dươbg</t>
         </is>
       </c>
       <c r="C653">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Gì</t>
+          <t>Dupng</t>
         </is>
       </c>
       <c r="C654">
@@ -14105,7 +14105,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Giằng</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="C655">
@@ -14126,7 +14126,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Giangg</t>
+          <t>Duyễn</t>
         </is>
       </c>
       <c r="C656">
@@ -14147,7 +14147,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Gư</t>
+          <t>Đv</t>
         </is>
       </c>
       <c r="C657">
@@ -14168,7 +14168,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Guyễn</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="C658">
@@ -14189,7 +14189,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>ha</t>
+          <t>Geoffrey</t>
         </is>
       </c>
       <c r="C659">
@@ -14210,7 +14210,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Há</t>
+          <t>Gì</t>
         </is>
       </c>
       <c r="C660">
@@ -14231,7 +14231,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Hâ</t>
+          <t>Giằng</t>
         </is>
       </c>
       <c r="C661">
@@ -14252,7 +14252,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Hạc</t>
+          <t>Giangg</t>
         </is>
       </c>
       <c r="C662">
@@ -14273,7 +14273,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Hf</t>
+          <t>Gư</t>
         </is>
       </c>
       <c r="C663">
@@ -14294,7 +14294,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Hì</t>
+          <t>Guyễn</t>
         </is>
       </c>
       <c r="C664">
@@ -14315,7 +14315,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Hò</t>
+          <t>ha</t>
         </is>
       </c>
       <c r="C665">
@@ -14336,7 +14336,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Hỗ</t>
+          <t>Há</t>
         </is>
       </c>
       <c r="C666">
@@ -14357,7 +14357,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Hớ</t>
+          <t>Hâ</t>
         </is>
       </c>
       <c r="C667">
@@ -14378,7 +14378,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Hoà</t>
+          <t>Hạc</t>
         </is>
       </c>
       <c r="C668">
@@ -14399,7 +14399,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Hoả</t>
+          <t>Hf</t>
         </is>
       </c>
       <c r="C669">
@@ -14420,7 +14420,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Hòa</t>
+          <t>Hì</t>
         </is>
       </c>
       <c r="C670">
@@ -14441,7 +14441,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Hỏa</t>
+          <t>Hò</t>
         </is>
       </c>
       <c r="C671">
@@ -14462,7 +14462,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>Hoan</t>
+          <t>Hỗ</t>
         </is>
       </c>
       <c r="C672">
@@ -14483,7 +14483,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>hoang</t>
+          <t>Hớ</t>
         </is>
       </c>
       <c r="C673">
@@ -14504,7 +14504,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Hoảng</t>
+          <t>Hoà</t>
         </is>
       </c>
       <c r="C674">
@@ -14525,7 +14525,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Hoanh</t>
+          <t>Hoả</t>
         </is>
       </c>
       <c r="C675">
@@ -14546,7 +14546,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Hòe</t>
+          <t>Hòa</t>
         </is>
       </c>
       <c r="C676">
@@ -14567,7 +14567,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Hómgf</t>
+          <t>Hỏa</t>
         </is>
       </c>
       <c r="C677">
@@ -14588,7 +14588,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Hoồng</t>
+          <t>Hoan</t>
         </is>
       </c>
       <c r="C678">
@@ -14609,7 +14609,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Hừ</t>
+          <t>hoang</t>
         </is>
       </c>
       <c r="C679">
@@ -14630,7 +14630,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Huàng</t>
+          <t>Hoảng</t>
         </is>
       </c>
       <c r="C680">
@@ -14651,7 +14651,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Hùi</t>
+          <t>Hoanh</t>
         </is>
       </c>
       <c r="C681">
@@ -14672,7 +14672,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Hương</t>
+          <t>Hòe</t>
         </is>
       </c>
       <c r="C682">
@@ -14693,7 +14693,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Ju</t>
+          <t>Hómgf</t>
         </is>
       </c>
       <c r="C683">
@@ -14714,7 +14714,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Hoồng</t>
         </is>
       </c>
       <c r="C684">
@@ -14735,7 +14735,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Khác</t>
+          <t>Hừ</t>
         </is>
       </c>
       <c r="C685">
@@ -14756,7 +14756,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Khắc</t>
+          <t>Huàng</t>
         </is>
       </c>
       <c r="C686">
@@ -14777,7 +14777,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Khag</t>
+          <t>Hùi</t>
         </is>
       </c>
       <c r="C687">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Khâu</t>
+          <t>Hương</t>
         </is>
       </c>
       <c r="C688">
@@ -14819,7 +14819,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Khoáng</t>
+          <t>Ju</t>
         </is>
       </c>
       <c r="C689">
@@ -14840,7 +14840,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Khoangf</t>
+          <t>K</t>
         </is>
       </c>
       <c r="C690">
@@ -14861,7 +14861,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Khườg</t>
+          <t>Khác</t>
         </is>
       </c>
       <c r="C691">
@@ -14882,7 +14882,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>khương</t>
+          <t>Khắc</t>
         </is>
       </c>
       <c r="C692">
@@ -14903,7 +14903,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Khuyât</t>
+          <t>Khag</t>
         </is>
       </c>
       <c r="C693">
@@ -14924,7 +14924,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Kiền</t>
+          <t>Khâu</t>
         </is>
       </c>
       <c r="C694">
@@ -14945,7 +14945,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Kiểu</t>
+          <t>Khoáng</t>
         </is>
       </c>
       <c r="C695">
@@ -14966,7 +14966,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Kiệu</t>
+          <t>Khoangf</t>
         </is>
       </c>
       <c r="C696">
@@ -14987,7 +14987,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Kin</t>
+          <t>Khườg</t>
         </is>
       </c>
       <c r="C697">
@@ -15008,7 +15008,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>khương</t>
         </is>
       </c>
       <c r="C698">
@@ -15029,7 +15029,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Lạ</t>
+          <t>Khuyât</t>
         </is>
       </c>
       <c r="C699">
@@ -15050,7 +15050,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Lắm</t>
+          <t>Kiền</t>
         </is>
       </c>
       <c r="C700">
@@ -15071,7 +15071,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Lần</t>
+          <t>Kiểu</t>
         </is>
       </c>
       <c r="C701">
@@ -15092,7 +15092,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>lăng</t>
+          <t>Kiệu</t>
         </is>
       </c>
       <c r="C702">
@@ -15113,7 +15113,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>lành</t>
+          <t>Kin</t>
         </is>
       </c>
       <c r="C703">
@@ -15134,7 +15134,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>Lãnh</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C704">
@@ -15155,7 +15155,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Lão</t>
+          <t>Lạ</t>
         </is>
       </c>
       <c r="C705">
@@ -15176,7 +15176,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Lề</t>
+          <t>Lắm</t>
         </is>
       </c>
       <c r="C706">
@@ -15197,7 +15197,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Lềm</t>
+          <t>Lần</t>
         </is>
       </c>
       <c r="C707">
@@ -15218,7 +15218,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Li</t>
+          <t>lăng</t>
         </is>
       </c>
       <c r="C708">
@@ -15239,7 +15239,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Lìa</t>
+          <t>lành</t>
         </is>
       </c>
       <c r="C709">
@@ -15260,7 +15260,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Lien</t>
+          <t>Lãnh</t>
         </is>
       </c>
       <c r="C710">
@@ -15281,7 +15281,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Liều</t>
+          <t>Lão</t>
         </is>
       </c>
       <c r="C711">
@@ -15302,7 +15302,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Lim</t>
+          <t>Lề</t>
         </is>
       </c>
       <c r="C712">
@@ -15323,7 +15323,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>Lĩnh</t>
+          <t>Lềm</t>
         </is>
       </c>
       <c r="C713">
@@ -15344,7 +15344,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>Lìu</t>
+          <t>Li</t>
         </is>
       </c>
       <c r="C714">
@@ -15365,7 +15365,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Lồ</t>
+          <t>Lìa</t>
         </is>
       </c>
       <c r="C715">
@@ -15386,7 +15386,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>lỗ</t>
+          <t>Lien</t>
         </is>
       </c>
       <c r="C716">
@@ -15407,7 +15407,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>lọ</t>
+          <t>Liều</t>
         </is>
       </c>
       <c r="C717">
@@ -15428,7 +15428,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>Lôc</t>
+          <t>Lim</t>
         </is>
       </c>
       <c r="C718">
@@ -15449,7 +15449,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Lốc</t>
+          <t>Lĩnh</t>
         </is>
       </c>
       <c r="C719">
@@ -15470,7 +15470,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Lôi</t>
+          <t>Lìu</t>
         </is>
       </c>
       <c r="C720">
@@ -15491,7 +15491,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Lú</t>
+          <t>Lồ</t>
         </is>
       </c>
       <c r="C721">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>lù</t>
+          <t>lỗ</t>
         </is>
       </c>
       <c r="C722">
@@ -15533,7 +15533,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>lừ</t>
+          <t>lọ</t>
         </is>
       </c>
       <c r="C723">
@@ -15554,7 +15554,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Lự</t>
+          <t>Lôc</t>
         </is>
       </c>
       <c r="C724">
@@ -15575,7 +15575,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Lụ</t>
+          <t>Lốc</t>
         </is>
       </c>
       <c r="C725">
@@ -15596,7 +15596,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Lửa</t>
+          <t>Lôi</t>
         </is>
       </c>
       <c r="C726">
@@ -15617,7 +15617,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Luân</t>
+          <t>Lú</t>
         </is>
       </c>
       <c r="C727">
@@ -15638,7 +15638,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Lưc</t>
+          <t>lù</t>
         </is>
       </c>
       <c r="C728">
@@ -15659,7 +15659,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Lực</t>
+          <t>lừ</t>
         </is>
       </c>
       <c r="C729">
@@ -15680,7 +15680,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Lui</t>
+          <t>Lự</t>
         </is>
       </c>
       <c r="C730">
@@ -15701,7 +15701,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>Lưi</t>
+          <t>Lụ</t>
         </is>
       </c>
       <c r="C731">
@@ -15722,7 +15722,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Lừng</t>
+          <t>Lửa</t>
         </is>
       </c>
       <c r="C732">
@@ -15743,7 +15743,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Luownng</t>
+          <t>Luân</t>
         </is>
       </c>
       <c r="C733">
@@ -15764,7 +15764,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Lựu</t>
+          <t>Lưc</t>
         </is>
       </c>
       <c r="C734">
@@ -15785,7 +15785,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>Luyễn</t>
+          <t>Lực</t>
         </is>
       </c>
       <c r="C735">
@@ -15806,7 +15806,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>ma</t>
+          <t>Lui</t>
         </is>
       </c>
       <c r="C736">
@@ -15827,7 +15827,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>Mạ</t>
+          <t>Lưi</t>
         </is>
       </c>
       <c r="C737">
@@ -15848,7 +15848,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>Mac</t>
+          <t>Lừng</t>
         </is>
       </c>
       <c r="C738">
@@ -15869,7 +15869,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>Mài</t>
+          <t>Luownng</t>
         </is>
       </c>
       <c r="C739">
@@ -15890,7 +15890,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>Mại</t>
+          <t>Lựu</t>
         </is>
       </c>
       <c r="C740">
@@ -15911,7 +15911,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>Mang</t>
+          <t>Luyễn</t>
         </is>
       </c>
       <c r="C741">
@@ -15932,7 +15932,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>Màng</t>
+          <t>ma</t>
         </is>
       </c>
       <c r="C742">
@@ -15953,7 +15953,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>Mạnh</t>
+          <t>Mạ</t>
         </is>
       </c>
       <c r="C743">
@@ -15974,7 +15974,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>Mao</t>
+          <t>Mac</t>
         </is>
       </c>
       <c r="C744">
@@ -15995,7 +15995,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>Mau</t>
+          <t>Mài</t>
         </is>
       </c>
       <c r="C745">
@@ -16016,7 +16016,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>mầu</t>
+          <t>Mại</t>
         </is>
       </c>
       <c r="C746">
@@ -16037,7 +16037,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>Mậu</t>
+          <t>Mang</t>
         </is>
       </c>
       <c r="C747">
@@ -16058,7 +16058,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>Màudi</t>
+          <t>Màng</t>
         </is>
       </c>
       <c r="C748">
@@ -16079,7 +16079,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>Màut</t>
+          <t>Mạnh</t>
         </is>
       </c>
       <c r="C749">
@@ -16100,7 +16100,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>Me</t>
+          <t>Mao</t>
         </is>
       </c>
       <c r="C750">
@@ -16121,7 +16121,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>Mê</t>
+          <t>Mau</t>
         </is>
       </c>
       <c r="C751">
@@ -16142,7 +16142,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>Mgô</t>
+          <t>mầu</t>
         </is>
       </c>
       <c r="C752">
@@ -16163,7 +16163,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>Mguyễn</t>
+          <t>Mậu</t>
         </is>
       </c>
       <c r="C753">
@@ -16184,7 +16184,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>Moong</t>
+          <t>Màudi</t>
         </is>
       </c>
       <c r="C754">
@@ -16205,7 +16205,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>Msi</t>
+          <t>Màut</t>
         </is>
       </c>
       <c r="C755">
@@ -16226,7 +16226,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Mù</t>
+          <t>Me</t>
         </is>
       </c>
       <c r="C756">
@@ -16247,7 +16247,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>Múa</t>
+          <t>Mê</t>
         </is>
       </c>
       <c r="C757">
@@ -16268,7 +16268,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>mùi</t>
+          <t>Mgô</t>
         </is>
       </c>
       <c r="C758">
@@ -16289,7 +16289,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>Mùng</t>
+          <t>Mguyễn</t>
         </is>
       </c>
       <c r="C759">
@@ -16310,7 +16310,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>Mý</t>
+          <t>Moong</t>
         </is>
       </c>
       <c r="C760">
@@ -16331,7 +16331,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>Mỵ</t>
+          <t>Msi</t>
         </is>
       </c>
       <c r="C761">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Mù</t>
         </is>
       </c>
       <c r="C762">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Múa</t>
         </is>
       </c>
       <c r="C763">
@@ -16394,7 +16394,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>Nã</t>
+          <t>mùi</t>
         </is>
       </c>
       <c r="C764">
@@ -16415,7 +16415,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Mùng</t>
         </is>
       </c>
       <c r="C765">
@@ -16436,7 +16436,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>Nay</t>
+          <t>Mý</t>
         </is>
       </c>
       <c r="C766">
@@ -16457,7 +16457,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>Nfuyeexn</t>
+          <t>Mỵ</t>
         </is>
       </c>
       <c r="C767">
@@ -16478,7 +16478,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>Nfyuên</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C768">
@@ -16499,7 +16499,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>Ngầ</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="C769">
@@ -16520,7 +16520,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>Ngâgn</t>
+          <t>Nã</t>
         </is>
       </c>
       <c r="C770">
@@ -16541,7 +16541,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>Ngầm</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="C771">
@@ -16562,7 +16562,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>ngàn</t>
+          <t>Nay</t>
         </is>
       </c>
       <c r="C772">
@@ -16583,7 +16583,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>Ngàn</t>
+          <t>Nfuyeexn</t>
         </is>
       </c>
       <c r="C773">
@@ -16604,7 +16604,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>ngần</t>
+          <t>Nfyuên</t>
         </is>
       </c>
       <c r="C774">
@@ -16625,7 +16625,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>NGẦN</t>
+          <t>Ngầ</t>
         </is>
       </c>
       <c r="C775">
@@ -16646,7 +16646,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>nghiem</t>
+          <t>Ngâgn</t>
         </is>
       </c>
       <c r="C776">
@@ -16667,7 +16667,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>Nghiem</t>
+          <t>Ngầm</t>
         </is>
       </c>
       <c r="C777">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Nghiểm</t>
+          <t>ngàn</t>
         </is>
       </c>
       <c r="C778">
@@ -16709,7 +16709,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>nghiệm</t>
+          <t>Ngàn</t>
         </is>
       </c>
       <c r="C779">
@@ -16730,7 +16730,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>Nghuễn</t>
+          <t>ngần</t>
         </is>
       </c>
       <c r="C780">
@@ -16751,7 +16751,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>Ngiem</t>
+          <t>NGẦN</t>
         </is>
       </c>
       <c r="C781">
@@ -16772,7 +16772,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>Ngiuen</t>
+          <t>nghiem</t>
         </is>
       </c>
       <c r="C782">
@@ -16793,7 +16793,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>ngo</t>
+          <t>Nghiem</t>
         </is>
       </c>
       <c r="C783">
@@ -16814,7 +16814,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>Ngõ</t>
+          <t>Nghiểm</t>
         </is>
       </c>
       <c r="C784">
@@ -16835,7 +16835,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>ngộ</t>
+          <t>nghiệm</t>
         </is>
       </c>
       <c r="C785">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>Ngủ</t>
+          <t>Nghuễn</t>
         </is>
       </c>
       <c r="C786">
@@ -16877,7 +16877,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>Ngư</t>
+          <t>Ngiem</t>
         </is>
       </c>
       <c r="C787">
@@ -16898,7 +16898,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>Ngữ</t>
+          <t>Ngiuen</t>
         </is>
       </c>
       <c r="C788">
@@ -16919,7 +16919,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>Nguẻn</t>
+          <t>ngo</t>
         </is>
       </c>
       <c r="C789">
@@ -16940,7 +16940,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>Nguện</t>
+          <t>Ngõ</t>
         </is>
       </c>
       <c r="C790">
@@ -16961,7 +16961,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>Ngueyn</t>
+          <t>ngộ</t>
         </is>
       </c>
       <c r="C791">
@@ -16982,7 +16982,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>Ngugeenx</t>
+          <t>Ngủ</t>
         </is>
       </c>
       <c r="C792">
@@ -17003,7 +17003,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>Người</t>
+          <t>Ngư</t>
         </is>
       </c>
       <c r="C793">
@@ -17024,7 +17024,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>Ngương</t>
+          <t>Ngữ</t>
         </is>
       </c>
       <c r="C794">
@@ -17045,7 +17045,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>Ngưỡng</t>
+          <t>Nguẻn</t>
         </is>
       </c>
       <c r="C795">
@@ -17066,7 +17066,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>Nguteenx</t>
+          <t>Nguện</t>
         </is>
       </c>
       <c r="C796">
@@ -17087,7 +17087,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>Ngưu</t>
+          <t>Ngueyn</t>
         </is>
       </c>
       <c r="C797">
@@ -17108,7 +17108,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>Nguuyễn</t>
+          <t>Ngugeenx</t>
         </is>
       </c>
       <c r="C798">
@@ -17129,7 +17129,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>Ngũy</t>
+          <t>Người</t>
         </is>
       </c>
       <c r="C799">
@@ -17150,7 +17150,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>Ngụy</t>
+          <t>Ngương</t>
         </is>
       </c>
       <c r="C800">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>nguyêbx</t>
+          <t>Ngưỡng</t>
         </is>
       </c>
       <c r="C801">
@@ -17192,7 +17192,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>Nguỵen</t>
+          <t>Nguteenx</t>
         </is>
       </c>
       <c r="C802">
@@ -17213,7 +17213,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>Ngủyên</t>
+          <t>Ngưu</t>
         </is>
       </c>
       <c r="C803">
@@ -17234,7 +17234,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>nguyệt</t>
+          <t>Nguuyễn</t>
         </is>
       </c>
       <c r="C804">
@@ -17255,7 +17255,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>Nguyệt</t>
+          <t>Ngũy</t>
         </is>
       </c>
       <c r="C805">
@@ -17276,7 +17276,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>Nguywen</t>
+          <t>Ngụy</t>
         </is>
       </c>
       <c r="C806">
@@ -17297,7 +17297,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>ngyuen</t>
+          <t>nguyêbx</t>
         </is>
       </c>
       <c r="C807">
@@ -17318,7 +17318,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>Ngyyễn</t>
+          <t>Nguỵen</t>
         </is>
       </c>
       <c r="C808">
@@ -17339,7 +17339,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>Nhã</t>
+          <t>Ngủyên</t>
         </is>
       </c>
       <c r="C809">
@@ -17360,7 +17360,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>Nhguyên</t>
+          <t>nguyệt</t>
         </is>
       </c>
       <c r="C810">
@@ -17381,7 +17381,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>Nhguyễn</t>
+          <t>Nguyệt</t>
         </is>
       </c>
       <c r="C811">
@@ -17402,7 +17402,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>Nhiyên</t>
+          <t>Nguywen</t>
         </is>
       </c>
       <c r="C812">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>Nhủ</t>
+          <t>ngyuen</t>
         </is>
       </c>
       <c r="C813">
@@ -17444,7 +17444,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>Nhừ</t>
+          <t>Ngyyễn</t>
         </is>
       </c>
       <c r="C814">
@@ -17465,7 +17465,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>nhuyễn</t>
+          <t>Nhã</t>
         </is>
       </c>
       <c r="C815">
@@ -17486,7 +17486,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>Nih</t>
+          <t>Nhguyên</t>
         </is>
       </c>
       <c r="C816">
@@ -17507,7 +17507,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>nô</t>
+          <t>Nhguyễn</t>
         </is>
       </c>
       <c r="C817">
@@ -17528,7 +17528,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>NOCTHA</t>
+          <t>Nhiyên</t>
         </is>
       </c>
       <c r="C818">
@@ -17549,7 +17549,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>Nôi</t>
+          <t>Nhủ</t>
         </is>
       </c>
       <c r="C819">
@@ -17570,7 +17570,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>Nong</t>
+          <t>Nhừ</t>
         </is>
       </c>
       <c r="C820">
@@ -17591,7 +17591,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>Nova</t>
+          <t>nhuyễn</t>
         </is>
       </c>
       <c r="C821">
@@ -17612,7 +17612,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>nữ</t>
+          <t>Nih</t>
         </is>
       </c>
       <c r="C822">
@@ -17633,7 +17633,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>nùi</t>
+          <t>nô</t>
         </is>
       </c>
       <c r="C823">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>Nùi</t>
+          <t>NOCTHA</t>
         </is>
       </c>
       <c r="C824">
@@ -17675,7 +17675,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>nuyễn</t>
+          <t>Nôi</t>
         </is>
       </c>
       <c r="C825">
@@ -17696,7 +17696,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>Oát</t>
+          <t>Nong</t>
         </is>
       </c>
       <c r="C826">
@@ -17717,7 +17717,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>Ốc</t>
+          <t>Nova</t>
         </is>
       </c>
       <c r="C827">
@@ -17738,7 +17738,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>nữ</t>
         </is>
       </c>
       <c r="C828">
@@ -17759,7 +17759,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>Ong</t>
+          <t>nùi</t>
         </is>
       </c>
       <c r="C829">
@@ -17780,7 +17780,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Nùi</t>
         </is>
       </c>
       <c r="C830">
@@ -17801,7 +17801,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>Pàn</t>
+          <t>nuyễn</t>
         </is>
       </c>
       <c r="C831">
@@ -17822,7 +17822,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>Phám</t>
+          <t>Oát</t>
         </is>
       </c>
       <c r="C832">
@@ -17843,7 +17843,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>Phẩm</t>
+          <t>Ốc</t>
         </is>
       </c>
       <c r="C833">
@@ -17864,7 +17864,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>phậm</t>
+          <t>On</t>
         </is>
       </c>
       <c r="C834">
@@ -17885,7 +17885,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>PHÂN</t>
+          <t>Ong</t>
         </is>
       </c>
       <c r="C835">
@@ -17906,7 +17906,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>Phận</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C836">
@@ -17927,7 +17927,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>Pháng</t>
+          <t>Pàn</t>
         </is>
       </c>
       <c r="C837">
@@ -17948,7 +17948,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>Phí</t>
+          <t>Phám</t>
         </is>
       </c>
       <c r="C838">
@@ -17969,7 +17969,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>Phình</t>
+          <t>Phẩm</t>
         </is>
       </c>
       <c r="C839">
@@ -17990,7 +17990,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>Phong</t>
+          <t>phậm</t>
         </is>
       </c>
       <c r="C840">
@@ -18011,7 +18011,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>Phsm</t>
+          <t>PHÂN</t>
         </is>
       </c>
       <c r="C841">
@@ -18032,7 +18032,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>Phù</t>
+          <t>Phận</t>
         </is>
       </c>
       <c r="C842">
@@ -18053,7 +18053,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>Phụ</t>
+          <t>Pháng</t>
         </is>
       </c>
       <c r="C843">
@@ -18074,7 +18074,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>Pjam</t>
+          <t>Phí</t>
         </is>
       </c>
       <c r="C844">
@@ -18095,7 +18095,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>Qiach</t>
+          <t>Phình</t>
         </is>
       </c>
       <c r="C845">
@@ -18116,7 +18116,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>Qoàng</t>
+          <t>Phong</t>
         </is>
       </c>
       <c r="C846">
@@ -18137,7 +18137,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>Quac</t>
+          <t>Phsm</t>
         </is>
       </c>
       <c r="C847">
@@ -18158,7 +18158,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>Quâch</t>
+          <t>Phù</t>
         </is>
       </c>
       <c r="C848">
@@ -18179,7 +18179,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>Quah</t>
+          <t>Phụ</t>
         </is>
       </c>
       <c r="C849">
@@ -18200,7 +18200,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>Quản</t>
+          <t>Pjam</t>
         </is>
       </c>
       <c r="C850">
@@ -18221,7 +18221,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>QUẢN</t>
+          <t>Qiach</t>
         </is>
       </c>
       <c r="C851">
@@ -18242,7 +18242,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>quánh</t>
+          <t>Qoàng</t>
         </is>
       </c>
       <c r="C852">
@@ -18263,7 +18263,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>Quất</t>
+          <t>Quac</t>
         </is>
       </c>
       <c r="C853">
@@ -18284,7 +18284,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>Quých</t>
+          <t>Quâch</t>
         </is>
       </c>
       <c r="C854">
@@ -18305,7 +18305,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>Ralu</t>
+          <t>Quah</t>
         </is>
       </c>
       <c r="C855">
@@ -18326,7 +18326,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>Ràng</t>
+          <t>Quản</t>
         </is>
       </c>
       <c r="C856">
@@ -18347,7 +18347,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>Rôda</t>
+          <t>QUẢN</t>
         </is>
       </c>
       <c r="C857">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>Rông</t>
+          <t>quánh</t>
         </is>
       </c>
       <c r="C858">
@@ -18389,7 +18389,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>Quất</t>
         </is>
       </c>
       <c r="C859">
@@ -18410,7 +18410,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>Sái</t>
+          <t>Quých</t>
         </is>
       </c>
       <c r="C860">
@@ -18431,7 +18431,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>Sầm</t>
+          <t>Ralu</t>
         </is>
       </c>
       <c r="C861">
@@ -18452,7 +18452,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>Sần</t>
+          <t>Ràng</t>
         </is>
       </c>
       <c r="C862">
@@ -18473,7 +18473,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>sản</t>
+          <t>Rôda</t>
         </is>
       </c>
       <c r="C863">
@@ -18494,7 +18494,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>Sén</t>
+          <t>Rông</t>
         </is>
       </c>
       <c r="C864">
@@ -18515,7 +18515,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>Séng</t>
+          <t>sa</t>
         </is>
       </c>
       <c r="C865">
@@ -18536,7 +18536,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>Sính</t>
+          <t>Sái</t>
         </is>
       </c>
       <c r="C866">
@@ -18557,7 +18557,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>Siu</t>
+          <t>Sầm</t>
         </is>
       </c>
       <c r="C867">
@@ -18578,7 +18578,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>Sor</t>
+          <t>Sần</t>
         </is>
       </c>
       <c r="C868">
@@ -18599,7 +18599,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>Sum</t>
+          <t>sản</t>
         </is>
       </c>
       <c r="C869">
@@ -18620,7 +18620,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>Sungg</t>
+          <t>Sén</t>
         </is>
       </c>
       <c r="C870">
@@ -18641,7 +18641,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>Tá</t>
+          <t>Séng</t>
         </is>
       </c>
       <c r="C871">
@@ -18662,7 +18662,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>Tải</t>
+          <t>Sính</t>
         </is>
       </c>
       <c r="C872">
@@ -18683,7 +18683,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>Tâm</t>
+          <t>Siu</t>
         </is>
       </c>
       <c r="C873">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>Tàng</t>
+          <t>Sor</t>
         </is>
       </c>
       <c r="C874">
@@ -18725,7 +18725,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>tằng</t>
+          <t>Sum</t>
         </is>
       </c>
       <c r="C875">
@@ -18746,7 +18746,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>Tếch</t>
+          <t>Sungg</t>
         </is>
       </c>
       <c r="C876">
@@ -18767,7 +18767,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>Ténh</t>
+          <t>Tá</t>
         </is>
       </c>
       <c r="C877">
@@ -18788,7 +18788,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>Tênh</t>
+          <t>Tải</t>
         </is>
       </c>
       <c r="C878">
@@ -18809,7 +18809,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>Teo</t>
+          <t>Tâm</t>
         </is>
       </c>
       <c r="C879">
@@ -18830,7 +18830,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>Thạc</t>
+          <t>Tàng</t>
         </is>
       </c>
       <c r="C880">
@@ -18851,7 +18851,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>Thang</t>
+          <t>tằng</t>
         </is>
       </c>
       <c r="C881">
@@ -18872,7 +18872,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>Thanh</t>
+          <t>Tếch</t>
         </is>
       </c>
       <c r="C882">
@@ -18893,7 +18893,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>Thao</t>
+          <t>Ténh</t>
         </is>
       </c>
       <c r="C883">
@@ -18914,7 +18914,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>Thiện</t>
+          <t>Tênh</t>
         </is>
       </c>
       <c r="C884">
@@ -18935,7 +18935,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>Thiếu</t>
+          <t>Teo</t>
         </is>
       </c>
       <c r="C885">
@@ -18956,7 +18956,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>Thiều</t>
+          <t>Thạc</t>
         </is>
       </c>
       <c r="C886">
@@ -18977,7 +18977,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>Tho</t>
+          <t>Thang</t>
         </is>
       </c>
       <c r="C887">
@@ -18998,7 +18998,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>TIẾN</t>
+          <t>Thanh</t>
         </is>
       </c>
       <c r="C888">
@@ -19019,7 +19019,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>Tiền</t>
+          <t>Thao</t>
         </is>
       </c>
       <c r="C889">
@@ -19040,7 +19040,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>Tỗ</t>
+          <t>Thiện</t>
         </is>
       </c>
       <c r="C890">
@@ -19061,7 +19061,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>Tổ</t>
+          <t>Thiếu</t>
         </is>
       </c>
       <c r="C891">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>Tỏ</t>
+          <t>Thiều</t>
         </is>
       </c>
       <c r="C892">
@@ -19103,7 +19103,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>Toàng</t>
+          <t>Tho</t>
         </is>
       </c>
       <c r="C893">
@@ -19124,7 +19124,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>TIẾN</t>
         </is>
       </c>
       <c r="C894">
@@ -19145,7 +19145,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>Tôơng</t>
+          <t>Tiền</t>
         </is>
       </c>
       <c r="C895">
@@ -19166,7 +19166,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>TôThi</t>
+          <t>Tỗ</t>
         </is>
       </c>
       <c r="C896">
@@ -19187,7 +19187,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>trà</t>
+          <t>Tổ</t>
         </is>
       </c>
       <c r="C897">
@@ -19208,7 +19208,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>Traần</t>
+          <t>Tỏ</t>
         </is>
       </c>
       <c r="C898">
@@ -19229,7 +19229,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>Trặc</t>
+          <t>Toàng</t>
         </is>
       </c>
       <c r="C899">
@@ -19250,7 +19250,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>Trách</t>
+          <t>Tổng</t>
         </is>
       </c>
       <c r="C900">
@@ -19271,7 +19271,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>Trâm</t>
+          <t>Tôơng</t>
         </is>
       </c>
       <c r="C901">
@@ -19292,7 +19292,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>Trận</t>
+          <t>TôThi</t>
         </is>
       </c>
       <c r="C902">
@@ -19313,7 +19313,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>Trẻ</t>
+          <t>trà</t>
         </is>
       </c>
       <c r="C903">
@@ -19334,7 +19334,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>Trên</t>
+          <t>Traần</t>
         </is>
       </c>
       <c r="C904">
@@ -19355,7 +19355,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>Trệu</t>
+          <t>Trặc</t>
         </is>
       </c>
       <c r="C905">
@@ -19376,7 +19376,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>Tri</t>
+          <t>Trách</t>
         </is>
       </c>
       <c r="C906">
@@ -19397,7 +19397,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>Triinhj</t>
+          <t>Trâm</t>
         </is>
       </c>
       <c r="C907">
@@ -19418,7 +19418,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>trinh</t>
+          <t>Trận</t>
         </is>
       </c>
       <c r="C908">
@@ -19439,7 +19439,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>Trinhquoc</t>
+          <t>Trẻ</t>
         </is>
       </c>
       <c r="C909">
@@ -19460,7 +19460,7 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>Trìu</t>
+          <t>Trên</t>
         </is>
       </c>
       <c r="C910">
@@ -19481,7 +19481,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>Trong</t>
+          <t>Trệu</t>
         </is>
       </c>
       <c r="C911">
@@ -19502,7 +19502,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>Trữ</t>
+          <t>Tri</t>
         </is>
       </c>
       <c r="C912">
@@ -19523,7 +19523,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>Trước</t>
+          <t>Triinhj</t>
         </is>
       </c>
       <c r="C913">
@@ -19544,7 +19544,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>Trųơng</t>
+          <t>trinh</t>
         </is>
       </c>
       <c r="C914">
@@ -19565,7 +19565,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>Ttan</t>
+          <t>Trinhquoc</t>
         </is>
       </c>
       <c r="C915">
@@ -19586,7 +19586,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>Ttàng</t>
+          <t>Trìu</t>
         </is>
       </c>
       <c r="C916">
@@ -19607,7 +19607,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>Tướng</t>
+          <t>Trong</t>
         </is>
       </c>
       <c r="C917">
@@ -19628,7 +19628,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>Ưng</t>
+          <t>Trữ</t>
         </is>
       </c>
       <c r="C918">
@@ -19649,7 +19649,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>Vái</t>
+          <t>Trước</t>
         </is>
       </c>
       <c r="C919">
@@ -19670,7 +19670,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>Váng</t>
+          <t>Trųơng</t>
         </is>
       </c>
       <c r="C920">
@@ -19691,7 +19691,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>Vầy</t>
+          <t>Ttan</t>
         </is>
       </c>
       <c r="C921">
@@ -19712,7 +19712,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>Ví</t>
+          <t>Ttàng</t>
         </is>
       </c>
       <c r="C922">
@@ -19733,7 +19733,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>VÌ</t>
+          <t>Tướng</t>
         </is>
       </c>
       <c r="C923">
@@ -19754,7 +19754,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>Vị</t>
+          <t>Ưng</t>
         </is>
       </c>
       <c r="C924">
@@ -19775,7 +19775,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>Vô</t>
+          <t>Vái</t>
         </is>
       </c>
       <c r="C925">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>Vú</t>
+          <t>Váng</t>
         </is>
       </c>
       <c r="C926">
@@ -19817,7 +19817,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>Vuduy</t>
+          <t>Vầy</t>
         </is>
       </c>
       <c r="C927">
@@ -19838,7 +19838,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>Vưỡng</t>
+          <t>Ví</t>
         </is>
       </c>
       <c r="C928">
@@ -19859,7 +19859,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>Vuthij</t>
+          <t>VÌ</t>
         </is>
       </c>
       <c r="C929">
@@ -19880,7 +19880,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>Vỳ</t>
+          <t>Vị</t>
         </is>
       </c>
       <c r="C930">
@@ -19901,7 +19901,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>Xà</t>
+          <t>Vô</t>
         </is>
       </c>
       <c r="C931">
@@ -19922,7 +19922,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>Xâ</t>
+          <t>Vú</t>
         </is>
       </c>
       <c r="C932">
@@ -19943,7 +19943,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>xã</t>
+          <t>Vuduy</t>
         </is>
       </c>
       <c r="C933">
@@ -19964,7 +19964,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>Xạ</t>
+          <t>Vưỡng</t>
         </is>
       </c>
       <c r="C934">
@@ -19985,7 +19985,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>Xac</t>
+          <t>Vuthij</t>
         </is>
       </c>
       <c r="C935">
@@ -20006,7 +20006,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>Xin</t>
+          <t>Vỳ</t>
         </is>
       </c>
       <c r="C936">
@@ -20027,7 +20027,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>Xông</t>
+          <t>Xà</t>
         </is>
       </c>
       <c r="C937">
@@ -20048,7 +20048,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>Ỷaan</t>
+          <t>Xâ</t>
         </is>
       </c>
       <c r="C938">
@@ -20069,7 +20069,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>yên</t>
+          <t>xã</t>
         </is>
       </c>
       <c r="C939">
@@ -20090,7 +20090,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>Yến</t>
+          <t>Xạ</t>
         </is>
       </c>
       <c r="C940">
@@ -20111,7 +20111,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>YUI</t>
+          <t>Xac</t>
         </is>
       </c>
       <c r="C941">
@@ -20132,16 +20132,142 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
+          <t>Xin</t>
+        </is>
+      </c>
+      <c r="C942">
+        <v>1</v>
+      </c>
+      <c r="D942">
+        <v>841569</v>
+      </c>
+      <c r="E942">
+        <v>0.0001188256696717678</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>Xông</t>
+        </is>
+      </c>
+      <c r="C943">
+        <v>1</v>
+      </c>
+      <c r="D943">
+        <v>841569</v>
+      </c>
+      <c r="E943">
+        <v>0.0001188256696717678</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>Ỷaan</t>
+        </is>
+      </c>
+      <c r="C944">
+        <v>1</v>
+      </c>
+      <c r="D944">
+        <v>841569</v>
+      </c>
+      <c r="E944">
+        <v>0.0001188256696717678</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>yên</t>
+        </is>
+      </c>
+      <c r="C945">
+        <v>1</v>
+      </c>
+      <c r="D945">
+        <v>841569</v>
+      </c>
+      <c r="E945">
+        <v>0.0001188256696717678</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>Yến</t>
+        </is>
+      </c>
+      <c r="C946">
+        <v>1</v>
+      </c>
+      <c r="D946">
+        <v>841569</v>
+      </c>
+      <c r="E946">
+        <v>0.0001188256696717678</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>YUI</t>
+        </is>
+      </c>
+      <c r="C947">
+        <v>1</v>
+      </c>
+      <c r="D947">
+        <v>841569</v>
+      </c>
+      <c r="E947">
+        <v>0.0001188256696717678</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
           <t>Zầm</t>
         </is>
       </c>
-      <c r="C942">
-        <v>1</v>
-      </c>
-      <c r="D942">
-        <v>841569</v>
-      </c>
-      <c r="E942">
+      <c r="C948">
+        <v>1</v>
+      </c>
+      <c r="D948">
+        <v>841569</v>
+      </c>
+      <c r="E948">
         <v>0.0001188256696717678</v>
       </c>
     </row>
